--- a/docx4j-wisewe-convert/src/test/java/cn/wisewe/docx4j/convert/builder/sheet/2007.xlsx
+++ b/docx4j-wisewe-convert/src/test/java/cn/wisewe/docx4j/convert/builder/sheet/2007.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scm\gitee\docx4j-wisewe\docx4j-wisewe-convert\src\test\java\cn\wisewe\docx4j\convert\builder\sheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534E3BB-895D-4F59-A35C-F052B732CF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -65,37 +75,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="44"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -103,61 +114,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -172,25 +135,43 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -206,13 +187,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -244,13 +231,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -282,13 +275,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -320,13 +319,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -358,13 +363,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -384,24 +395,319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.0" customWidth="true"/>
-    <col min="2" max="2" width="10.0" customWidth="true"/>
-    <col min="3" max="3" width="10.0" customWidth="true"/>
-    <col min="4" max="4" width="13.0" customWidth="true"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="105.0" customHeight="true">
+    <row r="2" spans="1:4" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -427,7 +733,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="105.0" customHeight="true">
+    <row r="3" spans="1:4" ht="105" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -439,7 +745,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="105.0" customHeight="true">
+    <row r="4" spans="1:4" ht="105" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -451,7 +757,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="105.0" customHeight="true">
+    <row r="5" spans="1:4" ht="105" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -463,7 +769,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="105.0" customHeight="true">
+    <row r="6" spans="1:4" ht="105" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -476,7 +782,117 @@
       <c r="D6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355F8E20-2EB9-440E-91A6-300BC6B2D5A5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68D29FC-D247-429A-ACFC-0E55891CC8AA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>